--- a/CASUAL/LA ONT/SUMAGUI, DESZERIE ANN AMULONG.xlsx
+++ b/CASUAL/LA ONT/SUMAGUI, DESZERIE ANN AMULONG.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>UT(0-5-0)</t>
+  </si>
+  <si>
+    <t>UT(0-4-46)</t>
   </si>
 </sst>
 </file>
@@ -928,7 +931,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,7 +974,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1035,7 +1038,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +1098,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1164,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +1227,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1325,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1384,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1449,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1492,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,7 +1567,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1753,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +1819,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1877,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1943,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1999,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2074,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2117,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2183,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2239,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,9 +2685,9 @@
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,7 +2852,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.375</v>
+        <v>15.779</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3310,11 +3313,15 @@
       <c r="A32" s="40">
         <v>44682</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
-      <c r="D32" s="39"/>
+      <c r="D32" s="39">
+        <v>0.59599999999999997</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
@@ -5243,12 +5250,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="11">
+        <v>46</v>
+      </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.625</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/SUMAGUI, DESZERIE ANN AMULONG.xlsx
+++ b/CASUAL/LA ONT/SUMAGUI, DESZERIE ANN AMULONG.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>UT(0-4-46)</t>
+  </si>
+  <si>
+    <t>UT(0-6-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-11)</t>
+  </si>
+  <si>
+    <t>UT(0-1-0)</t>
   </si>
 </sst>
 </file>
@@ -931,7 +940,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +983,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,7 +1047,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1098,7 +1107,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1173,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1227,7 +1236,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1334,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1393,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1458,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1501,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1576,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1762,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1828,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1886,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1952,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2008,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2083,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2126,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2192,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2248,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2344,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2682,12 +2691,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,7 +2861,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>15.779</v>
+        <v>16.131</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2862,7 +2871,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>33</v>
+        <v>34.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3401,11 +3410,15 @@
       <c r="A36" s="40">
         <v>44805</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C36" s="13">
         <v>1.25</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13">
@@ -3468,12 +3481,14 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="20"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="39">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="str">
@@ -3487,44 +3502,40 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>44957</v>
+        <v>44896</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39">
+        <v>0.75</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H40" s="39">
-        <v>1</v>
-      </c>
+      <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="49">
-        <v>44949</v>
-      </c>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
-        <v>44985</v>
+      <c r="A41" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="B41" s="20"/>
-      <c r="C41" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="39"/>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
@@ -3533,9 +3544,11 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>44957</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
@@ -3546,14 +3559,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="39">
+        <v>1</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="49">
+        <v>44949</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45046</v>
+        <v>44985</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -3573,17 +3590,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>45016</v>
+      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
-      <c r="D44" s="39">
-        <v>2</v>
-      </c>
+      <c r="D44" s="39"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
@@ -3593,17 +3606,13 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>57</v>
-      </c>
+        <v>45046</v>
+      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
@@ -3614,26 +3623,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H45" s="39">
-        <v>11</v>
-      </c>
+      <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45138</v>
+        <v>45077</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
-      <c r="D46" s="39"/>
+      <c r="D46" s="39">
+        <v>2</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
@@ -3644,40 +3651,42 @@
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
       <c r="K46" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45169</v>
+        <v>45107</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
-      <c r="D47" s="39">
-        <v>8</v>
-      </c>
+      <c r="D47" s="39"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H47" s="39"/>
+      <c r="H47" s="39">
+        <v>11</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B48" s="20"/>
+        <v>45138</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
@@ -3691,19 +3700,23 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45230</v>
+        <v>45169</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39">
+        <v>8</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -3713,63 +3726,63 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="49">
-        <v>45213</v>
+      <c r="K49" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="39">
-        <v>1</v>
-      </c>
+      <c r="A50" s="40">
+        <v>45199</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="49">
-        <v>45214</v>
-      </c>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="39">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20" t="s">
-        <v>64</v>
+      <c r="K51" s="49">
+        <v>45213</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B52" s="20"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>1</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13" t="str">
@@ -3779,15 +3792,21 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="49">
+        <v>45214</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B53" s="20"/>
+        <v>45260</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="39">
+        <v>2</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -3797,11 +3816,13 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45351</v>
+        <v>45291</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3819,7 +3840,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45382</v>
+        <v>45322</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3837,7 +3858,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3855,7 +3876,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3873,7 +3894,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3891,7 +3912,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3909,7 +3930,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3927,7 +3948,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3945,7 +3966,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3963,7 +3984,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45626</v>
+        <v>45565</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -3981,7 +4002,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -3999,7 +4020,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45688</v>
+        <v>45626</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4017,7 +4038,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45716</v>
+        <v>45657</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4035,7 +4056,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45747</v>
+        <v>45688</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4053,7 +4074,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45777</v>
+        <v>45716</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4071,7 +4092,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45808</v>
+        <v>45747</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4089,7 +4110,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45838</v>
+        <v>45777</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4107,7 +4128,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4125,7 +4146,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45900</v>
+        <v>45838</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4143,7 +4164,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4161,7 +4182,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45961</v>
+        <v>45900</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4179,7 +4200,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45991</v>
+        <v>45930</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4197,7 +4218,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46022</v>
+        <v>45961</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4215,7 +4236,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46053</v>
+        <v>45991</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4233,7 +4254,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46081</v>
+        <v>46022</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4251,7 +4272,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46112</v>
+        <v>46053</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4269,7 +4290,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46142</v>
+        <v>46081</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4287,7 +4308,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46173</v>
+        <v>46112</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4305,7 +4326,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46203</v>
+        <v>46142</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4323,7 +4344,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46234</v>
+        <v>46173</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4341,7 +4362,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46265</v>
+        <v>46203</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4358,7 +4379,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>46234</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4374,7 +4397,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>46265</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5126,20 +5151,52 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5250,14 +5307,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11">
-        <v>46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.59599999999999997</v>
+        <v>0.125</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
